--- a/content/drafts/entitats/Codis_Territori_Mancomunitats.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Mancomunitats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\03.Canigo\Versio_20191014\03.Draft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\01.Cataleg_inicial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D82870-3366-4F7C-B8C3-36666BFCFA9C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111A0E15-CF9F-412E-AABB-F072AF28989A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15576" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mancomunitats" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Codi</t>
   </si>
@@ -349,6 +349,18 @@
   </si>
   <si>
     <t>Mancomunitat de Serveis dels Municipis de Fortià i Riumors</t>
+  </si>
+  <si>
+    <t>9999999999</t>
+  </si>
+  <si>
+    <t>9999999998</t>
+  </si>
+  <si>
+    <t>No consta</t>
+  </si>
+  <si>
+    <t>Altres/Diversos</t>
   </si>
 </sst>
 </file>
@@ -398,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -421,17 +433,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,7 +574,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:B63" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:B65" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="0" dataCellStyle="Normal_Hoja2"/>
@@ -818,19 +846,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -838,7 +866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,7 +875,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -856,7 +884,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -865,7 +893,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -874,7 +902,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -883,7 +911,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -891,7 +919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -899,7 +927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -907,7 +935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -915,7 +943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -923,7 +951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -931,7 +959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -939,7 +967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -947,7 +975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -955,7 +983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
@@ -963,7 +991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -971,7 +999,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -979,7 +1007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
@@ -987,7 +1015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
@@ -995,7 +1023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
@@ -1003,7 +1031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
@@ -1011,7 +1039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
@@ -1019,7 +1047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
@@ -1027,7 +1055,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
@@ -1035,7 +1063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
@@ -1043,7 +1071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -1051,7 +1079,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -1059,7 +1087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
@@ -1067,7 +1095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
@@ -1075,7 +1103,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
@@ -1083,7 +1111,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>62</v>
       </c>
@@ -1091,7 +1119,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>64</v>
       </c>
@@ -1099,7 +1127,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
@@ -1107,7 +1135,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
@@ -1115,7 +1143,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>70</v>
       </c>
@@ -1123,7 +1151,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
@@ -1131,7 +1159,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
@@ -1139,7 +1167,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
@@ -1147,7 +1175,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>78</v>
       </c>
@@ -1155,7 +1183,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>80</v>
       </c>
@@ -1163,7 +1191,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>82</v>
       </c>
@@ -1171,7 +1199,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
@@ -1179,7 +1207,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>86</v>
       </c>
@@ -1187,7 +1215,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>9010000000</v>
       </c>
@@ -1195,7 +1223,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>9010170005</v>
       </c>
@@ -1203,7 +1231,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>9010220002</v>
       </c>
@@ -1211,7 +1239,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>9010380001</v>
       </c>
@@ -1219,7 +1247,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>9010430008</v>
       </c>
@@ -1227,7 +1255,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>9010560009</v>
       </c>
@@ -1235,7 +1263,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>9010690004</v>
       </c>
@@ -1243,7 +1271,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>9010750006</v>
       </c>
@@ -1251,7 +1279,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>9010810007</v>
       </c>
@@ -1259,7 +1287,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>9010940003</v>
       </c>
@@ -1267,7 +1295,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>9011080001</v>
       </c>
@@ -1275,7 +1303,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>9011150006</v>
       </c>
@@ -1283,7 +1311,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>9011200000</v>
       </c>
@@ -1291,7 +1319,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>9011360009</v>
       </c>
@@ -1299,7 +1327,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>9011410007</v>
       </c>
@@ -1307,7 +1335,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>9011540003</v>
       </c>
@@ -1315,7 +1343,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>9011670005</v>
       </c>
@@ -1323,19 +1351,35 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>9011730008</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A4:C63" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:C63 A64:B65" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -1344,15 +1388,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1484,6 +1519,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1494,14 +1538,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1515,6 +1551,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/content/drafts/entitats/Codis_Territori_Mancomunitats.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Mancomunitats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\01.Cataleg_inicial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111A0E15-CF9F-412E-AABB-F072AF28989A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD076030-D06D-4650-B975-A28554D657D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>Codi</t>
   </si>
@@ -66,27 +66,15 @@
     <t>9001680001</t>
   </si>
   <si>
-    <t>Mancomunitat Intermunicipal del Penedès i Garraf</t>
-  </si>
-  <si>
     <t>9001740003</t>
   </si>
   <si>
-    <t>Mancomunitat per a l'Atenció i Assistència de Minusvàlids Psíquics de la Comarca del Garraf</t>
-  </si>
-  <si>
     <t>9001800000</t>
   </si>
   <si>
-    <t>Mancomunitat per a l'Atenció dels Minusvàlids Psíquics de la Comarca de l'Anoia</t>
-  </si>
-  <si>
     <t>9002350006</t>
   </si>
   <si>
-    <t>Mancomunitat Intermunicipal Voluntària la Plana</t>
-  </si>
-  <si>
     <t>9002660009</t>
   </si>
   <si>
@@ -99,12 +87,6 @@
     <t>Mancomunitat Intermunicipal de la Vall del Tenes</t>
   </si>
   <si>
-    <t>9003120002</t>
-  </si>
-  <si>
-    <t>Mancomunitat de Municipis de l'Àrea Metropolitana de Barcelona</t>
-  </si>
-  <si>
     <t>9003330008</t>
   </si>
   <si>
@@ -114,45 +96,21 @@
     <t>9003480001</t>
   </si>
   <si>
-    <t>Mancomunitat de l'Alt Penedès</t>
-  </si>
-  <si>
     <t>9003640003</t>
   </si>
   <si>
-    <t>Mancomunitat Intermunicipal Escola Comarcal d'Arts Aplicades i Oficis Artístics del Berguedà</t>
-  </si>
-  <si>
     <t>9003990004</t>
   </si>
   <si>
     <t>Mancomunitat d'Aguilar de Segarra, Fonollosa i Rajadell</t>
   </si>
   <si>
-    <t>9004100000</t>
-  </si>
-  <si>
-    <t>Mancomunitat del Baix Llobregat</t>
-  </si>
-  <si>
     <t>9004310007</t>
   </si>
   <si>
-    <t>Mancomunitat de Palafrugell, Begur, Pals, Regencós i Torrent</t>
-  </si>
-  <si>
     <t>9004460009</t>
   </si>
   <si>
-    <t>Mancomunitat Intermunicipal les Guilleries</t>
-  </si>
-  <si>
-    <t>9004840003</t>
-  </si>
-  <si>
-    <t>Mancomunitat Urbanística Girona-Vilablareix-Salt</t>
-  </si>
-  <si>
     <t>9004970005</t>
   </si>
   <si>
@@ -171,24 +129,9 @@
     <t>Mancomunitat per a Fins d'Instrucció i Cultura d'Alp, Das, Fontanals de Cerdanya i Urús</t>
   </si>
   <si>
-    <t>9005220002</t>
-  </si>
-  <si>
-    <t>Mancomunitat Intermunicipal del Gironès</t>
-  </si>
-  <si>
     <t>9005380001</t>
   </si>
   <si>
-    <t>Mancomunitat del Servei de Control de Mosquits de la Badia de Roses i del Baix Ter</t>
-  </si>
-  <si>
-    <t>9005430008</t>
-  </si>
-  <si>
-    <t>Mancomunitat Intermunicipal Voluntària Turística de la Costa Brava</t>
-  </si>
-  <si>
     <t>9005690004</t>
   </si>
   <si>
@@ -198,9 +141,6 @@
     <t>9006150006</t>
   </si>
   <si>
-    <t>Mancomunitat d'Aigües de les Garrigues per a l'Abastament d'Aigua Potable</t>
-  </si>
-  <si>
     <t>9006200000</t>
   </si>
   <si>
@@ -222,57 +162,21 @@
     <t>9007130008</t>
   </si>
   <si>
-    <t>Mancomunitat Intermunicipal Voluntària per a la Promoció de les Pistes d'Esquí Nòrdic</t>
-  </si>
-  <si>
-    <t>9007280001</t>
-  </si>
-  <si>
-    <t>Mancomunitat Intermunicipal Voluntària de Serveis del Solsonès</t>
-  </si>
-  <si>
     <t>9007490004</t>
   </si>
   <si>
-    <t>Serveis Mancomunats d'Incineració de Residus Urbans</t>
-  </si>
-  <si>
-    <t>9007650006</t>
-  </si>
-  <si>
-    <t>Mancomunitat per a l'Escorxador de l'Alt Camp i de la Conca de Barberà</t>
-  </si>
-  <si>
-    <t>9007870005</t>
-  </si>
-  <si>
-    <t>Mancomunitat Intermunicipal Voluntària del Camp</t>
-  </si>
-  <si>
     <t>9008110007</t>
   </si>
   <si>
     <t>Mancomunitat Intermunicipal Deltatres</t>
   </si>
   <si>
-    <t>9008320002</t>
-  </si>
-  <si>
-    <t>Mancomunitat per a l'Abastament d'Aigua Procedent de la Planta d'Abrera</t>
-  </si>
-  <si>
     <t>9008470005</t>
   </si>
   <si>
     <t>Mancomunitat Intermunicipal Voluntària Segarrenca</t>
   </si>
   <si>
-    <t>9008500000</t>
-  </si>
-  <si>
-    <t>Mancomunitat Zona Industrial Conjunta dels Municipis de Vilassar de Mar i de Cabrils</t>
-  </si>
-  <si>
     <t>9008630008</t>
   </si>
   <si>
@@ -282,9 +186,6 @@
     <t>9008790004</t>
   </si>
   <si>
-    <t>Mancomunitat Intermunicipal d'Aigües Mancomunades del Baix Empordà</t>
-  </si>
-  <si>
     <t>9008980001</t>
   </si>
   <si>
@@ -303,42 +204,18 @@
     <t>Mancomunitat d'Aigües de la Noguera Alta</t>
   </si>
   <si>
-    <t>Mancomunitat de Santa Maria de Palautordera-Sant Esteve de Palautordera per a l'Abastament d'Aigua Potable</t>
-  </si>
-  <si>
-    <t>Mancomunitat d'Iniciatives pel Desenvolupament Integral (MIDI)</t>
-  </si>
-  <si>
-    <t>Mancomunitat d'Eliminació de Residus</t>
-  </si>
-  <si>
     <t>Mancomunitat Intermunicipal per a la Gestió de Residus de l'Alt Urgell Meridional</t>
   </si>
   <si>
-    <t>Mancomunitat del Bisaura i l'Alt Lluçanès</t>
-  </si>
-  <si>
-    <t>Mancomunitat la Gavarresa</t>
-  </si>
-  <si>
-    <t>Mancomunitat dels Municipis de Premià de Dalt, Premià de Mar i Vilassar de Dalt per a Serveis de Deixalleria</t>
-  </si>
-  <si>
     <t>Mancomunitat Intermunicipal del Priorat d'Escaladei DO</t>
   </si>
   <si>
-    <t>Mancomunitat Intermunicipal de Serveis</t>
-  </si>
-  <si>
     <t>Mancomunitat Intermunicipal de la Conca d'Òdena</t>
   </si>
   <si>
     <t>Mancomunitat Intermunicipal per a l'Abastament d'Aigua de Pinyana</t>
   </si>
   <si>
-    <t>Mancomunitat Intermunicipal de Potabilització d'Aigües de Barbens, Castellnou de Seana, Ivars d'Urgell i Vila-sana</t>
-  </si>
-  <si>
     <t>Mancomunitat de Municipis Tortosa-Roquetes</t>
   </si>
   <si>
@@ -348,9 +225,6 @@
     <t>Mancomunitat Intermunicipal del Cardener</t>
   </si>
   <si>
-    <t>Mancomunitat de Serveis dels Municipis de Fortià i Riumors</t>
-  </si>
-  <si>
     <t>9999999999</t>
   </si>
   <si>
@@ -361,6 +235,228 @@
   </si>
   <si>
     <t>Altres/Diversos</t>
+  </si>
+  <si>
+    <t>9011360009</t>
+  </si>
+  <si>
+    <t>MCI potabilització aigües Barbens, Castellnou de Seana, Ivars d'Urgell  i Vila-sana</t>
+  </si>
+  <si>
+    <t>9011670005</t>
+  </si>
+  <si>
+    <t>9011540003</t>
+  </si>
+  <si>
+    <t>9011890004</t>
+  </si>
+  <si>
+    <t>Mancomunitat Intermunicipal dels municipis de Foixà, Parlavà, Rupià i Ultramort</t>
+  </si>
+  <si>
+    <t>9010940003</t>
+  </si>
+  <si>
+    <t>Mancomunitat de Municipis per la promoció de l'Esquí Nòrdic</t>
+  </si>
+  <si>
+    <t>MC Serveis Mancomunats d'Incineració de Residus Urbans</t>
+  </si>
+  <si>
+    <t>9011410007</t>
+  </si>
+  <si>
+    <t>9011730008</t>
+  </si>
+  <si>
+    <t>Mancomunitat de Serveis dels municipis de Fortià i Riumors</t>
+  </si>
+  <si>
+    <t>9013470005</t>
+  </si>
+  <si>
+    <t>Mancomunitat Intermunicipal de Serveis Anoia de Ponent</t>
+  </si>
+  <si>
+    <t>9012650006</t>
+  </si>
+  <si>
+    <t>Mancomunitat de Municipis de les Valls d'Àneu</t>
+  </si>
+  <si>
+    <t>9012130008</t>
+  </si>
+  <si>
+    <t>Mancomunitat Intermunicipal de la Conca de l'Onyar</t>
+  </si>
+  <si>
+    <t>9012520002</t>
+  </si>
+  <si>
+    <t>Mancomunitat d'aigües BERSOLS</t>
+  </si>
+  <si>
+    <t>9013320002</t>
+  </si>
+  <si>
+    <t>Mancomunitat de municipis berguedans per a la biomassa</t>
+  </si>
+  <si>
+    <t>9013260009</t>
+  </si>
+  <si>
+    <t>Mancomunitat de Municipis per la Música a les Garrigues</t>
+  </si>
+  <si>
+    <t>9012060009</t>
+  </si>
+  <si>
+    <t>Mancomunitat de Serveis Oristà-Sant Feliu Sasserra</t>
+  </si>
+  <si>
+    <t>9013110007</t>
+  </si>
+  <si>
+    <t>Mancomunitat Gestora dels Recursos Hídrics dels municipis de Salou i de Vila-seca</t>
+  </si>
+  <si>
+    <t>9011920002</t>
+  </si>
+  <si>
+    <t>Mancomunitat de Municipis de Palamós, Calonge i Vall-llobrega</t>
+  </si>
+  <si>
+    <t>9012870005</t>
+  </si>
+  <si>
+    <t>Mancomunitat de Municipis del Galzeran</t>
+  </si>
+  <si>
+    <t>9012710007</t>
+  </si>
+  <si>
+    <t>Mancomunitat Intermunicipal de la Beguda Alta</t>
+  </si>
+  <si>
+    <t>9012900000</t>
+  </si>
+  <si>
+    <t>Mancomunitat de la Vall de Llémena</t>
+  </si>
+  <si>
+    <t>9012280001</t>
+  </si>
+  <si>
+    <t>Mancomunitat de la Taula del Sénia</t>
+  </si>
+  <si>
+    <t>9011200000</t>
+  </si>
+  <si>
+    <t>9010690004</t>
+  </si>
+  <si>
+    <t>Mancomunitat del Bisaura i l'Alt Lluçanés</t>
+  </si>
+  <si>
+    <t>9010750006</t>
+  </si>
+  <si>
+    <t>Mancomunitat La Gavarresa</t>
+  </si>
+  <si>
+    <t>9004590004</t>
+  </si>
+  <si>
+    <t>Mancomunitat Intermunicipal d'Aigües de Garriguella, Vilajuïga, Pau i Palau-saverdera</t>
+  </si>
+  <si>
+    <t>9011150006</t>
+  </si>
+  <si>
+    <t>Mancomunitat d'Aigües de les Garrigues per a l'abastament d'aigua potable</t>
+  </si>
+  <si>
+    <t>Mancomunitat de Municipis de l'Alt Penedès</t>
+  </si>
+  <si>
+    <t>MC Intermunicipal Escola Comarcal d'Arts Aplicades i Oficis Artístics del Berguedà</t>
+  </si>
+  <si>
+    <t>Mancomunitat Penedès-Garraf</t>
+  </si>
+  <si>
+    <t>9010380001</t>
+  </si>
+  <si>
+    <t>Mancomunitat d'Iniciatives pel Desenvolupament Integral del Territori (MIDIT)</t>
+  </si>
+  <si>
+    <t>Mancomunitat Intermunicipal "Les Guilleries"</t>
+  </si>
+  <si>
+    <t>9010810007</t>
+  </si>
+  <si>
+    <t>MC dels Municipis de Premià de Dalt, Premià de Mar i Vilassar de Dalt per Serv.Deixalleria</t>
+  </si>
+  <si>
+    <t>Mancomunitat de Palafrugell Begur Pals Regencós i Torrent</t>
+  </si>
+  <si>
+    <t>Mancomunitat per a l'atenció dels minusvàlids psíquics de la Comarca de l'Anoia</t>
+  </si>
+  <si>
+    <t>9007520002</t>
+  </si>
+  <si>
+    <t>Mancomunitat Intermun. de Gratallops, Torroja del Priorat, Poboleda i Porrera (TOPOGRAPO)</t>
+  </si>
+  <si>
+    <t>Mancomunitat del Servei de control de mosquits de la Badia de Roses i del Baix Ter</t>
+  </si>
+  <si>
+    <t>9010560009</t>
+  </si>
+  <si>
+    <t>Mancomunitat Intermunicipal d'Aigües i Serveis del Baix Empordà</t>
+  </si>
+  <si>
+    <t>9011080001</t>
+  </si>
+  <si>
+    <t>MC Intermunicipal de Serveis d'Alella, el Masnou i Teià</t>
+  </si>
+  <si>
+    <t>9012490004</t>
+  </si>
+  <si>
+    <t>Mancomunitat del Parc Natural de la Serra de Montsant</t>
+  </si>
+  <si>
+    <t>Mancomunitat Tegar del Garraf</t>
+  </si>
+  <si>
+    <t>9013040003</t>
+  </si>
+  <si>
+    <t>Mancomunitat Intermunicipal del Camí Natural de la Noguera Baixa</t>
+  </si>
+  <si>
+    <t>Mancomunitat Intermunicipal Voluntària La Plana</t>
+  </si>
+  <si>
+    <t>9010170005</t>
+  </si>
+  <si>
+    <t>9010000000</t>
+  </si>
+  <si>
+    <t>9006670005</t>
+  </si>
+  <si>
+    <t>Mancomunitat Intermunicipal de Mollerussa-el Palau d'Anglesola</t>
   </si>
 </sst>
 </file>
@@ -451,7 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -462,6 +558,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,7 +671,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:B65" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:B72" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="0" dataCellStyle="Normal_Hoja2"/>
@@ -846,7 +943,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -877,509 +974,565 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
-        <v>9010000000</v>
+      <c r="A46" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
-        <v>9010170005</v>
+      <c r="A47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
-        <v>9010220002</v>
+      <c r="A48" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
-        <v>9010380001</v>
+      <c r="A49" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="3">
-        <v>9010430008</v>
+      <c r="A50" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
-        <v>9010560009</v>
+      <c r="A51" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="3">
-        <v>9010690004</v>
+      <c r="A52" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="3">
-        <v>9010750006</v>
+      <c r="A53" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="3">
-        <v>9010810007</v>
+      <c r="A54" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="3">
-        <v>9010940003</v>
+      <c r="A55" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="3">
-        <v>9011080001</v>
+      <c r="A56" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="3">
-        <v>9011150006</v>
+      <c r="A57" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="3">
-        <v>9011200000</v>
+      <c r="A58" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="3">
-        <v>9011360009</v>
+      <c r="A59" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
-        <v>9011410007</v>
+      <c r="A60" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
-        <v>9011540003</v>
+      <c r="A61" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="3">
-        <v>9011670005</v>
+      <c r="A62" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="3">
-        <v>9011730008</v>
+      <c r="A63" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>109</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A4:C63 A64:B65" numberStoredAsText="1"/>
+    <ignoredError sqref="C4:C63 A4:B70 A71:B72" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -1388,6 +1541,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1519,25 +1690,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1553,28 +1730,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/content/drafts/entitats/Codis_Territori_Mancomunitats.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Mancomunitats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\01.Cataleg_inicial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\06.Canvis_Canigo_Draft_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD076030-D06D-4650-B975-A28554D657D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7610FD9-CDF5-4A63-A753-21396E19FC79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1541,24 +1541,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1690,31 +1672,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1730,4 +1706,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>